--- a/Spend2.0_DatabaseDesign - SSDL7658_updated - with Input and Normalized flags_V.2.xlsx
+++ b/Spend2.0_DatabaseDesign - SSDL7658_updated - with Input and Normalized flags_V.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GEP_Projects\SSDL-7658\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F6ED41-A283-48D2-AA6B-D9B61D15DA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2D1319-D33E-4BFA-9C3C-8C4AC3B7A1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{84E9CE72-CBCC-491B-BF3F-CD4C4EAC97BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{84E9CE72-CBCC-491B-BF3F-CD4C4EAC97BC}"/>
   </bookViews>
   <sheets>
     <sheet name="ADB Main table" sheetId="2" r:id="rId1"/>
@@ -3747,7 +3747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3795,7 +3795,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -25652,7 +25651,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E475"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B476" sqref="B476"/>
     </sheetView>
   </sheetViews>
@@ -25674,7 +25673,7 @@
       <c r="C1" s="15" t="s">
         <v>1181</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>1180</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -27030,11 +27029,11 @@
       </c>
       <c r="C69" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>no</v>
+        <v/>
       </c>
       <c r="D69" t="str">
         <f>IF(ISNA(VLOOKUP(A69,'SSDL Schema'!B$2:C$495,2,FALSE)), "", VLOOKUP(A69,'SSDL Schema'!B$2:C$495,2,FALSE))</f>
-        <v>int</v>
+        <v>bigint</v>
       </c>
       <c r="E69" t="str">
         <f>VLOOKUP(A69,'SSDL Schema'!B$2:C$495,1,FALSE)</f>
@@ -35186,9 +35185,9 @@
   </sheetPr>
   <dimension ref="A1:P495"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B495" sqref="B495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35241,19 +35240,19 @@
       <c r="J1" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>1153</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="36" t="s">
         <v>1154</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="36" t="s">
         <v>1155</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="40" t="s">
         <v>1174</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="40" t="s">
         <v>1175</v>
       </c>
       <c r="P1" s="20" t="s">
@@ -35285,19 +35284,19 @@
         <v>494</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="L2" s="30" t="s">
+      <c r="K2" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>1159</v>
       </c>
-      <c r="M2" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O2" s="30" t="s">
+      <c r="M2" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O2" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -35328,19 +35327,19 @@
         <v>494</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="29" t="s">
         <v>1160</v>
       </c>
-      <c r="L3" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O3" s="30" t="s">
+      <c r="L3" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O3" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -35371,19 +35370,19 @@
         <v>494</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O4" s="30" t="s">
+      <c r="K4" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O4" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -35414,19 +35413,19 @@
         <v>494</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O5" s="30" t="s">
+      <c r="K5" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O5" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -35457,19 +35456,19 @@
         <v>494</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O6" s="30" t="s">
+      <c r="K6" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O6" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -35503,19 +35502,19 @@
         <f>VLOOKUP(B7,'[1]From Spend Tech'!C$1:K$649,9,FALSE)</f>
         <v>S</v>
       </c>
-      <c r="K7" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O7" s="30" t="s">
+      <c r="K7" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O7" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -35547,19 +35546,19 @@
         <f>VLOOKUP(B8,'[1]From Spend Tech'!C$1:K$649,9,FALSE)</f>
         <v>S</v>
       </c>
-      <c r="K8" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O8" s="30" t="s">
+      <c r="K8" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O8" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -35588,19 +35587,19 @@
         <v>494</v>
       </c>
       <c r="J9" s="7"/>
-      <c r="K9" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O9" s="30" t="s">
+      <c r="K9" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O9" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -35629,19 +35628,19 @@
         <v>494</v>
       </c>
       <c r="J10" s="7"/>
-      <c r="K10" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O10" s="30" t="s">
+      <c r="K10" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O10" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -35670,19 +35669,19 @@
         <v>494</v>
       </c>
       <c r="J11" s="7"/>
-      <c r="K11" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O11" s="30" t="s">
+      <c r="K11" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O11" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -35713,19 +35712,19 @@
         <v>494</v>
       </c>
       <c r="J12" s="7"/>
-      <c r="K12" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O12" s="30" t="s">
+      <c r="K12" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O12" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -35754,19 +35753,19 @@
         <v>494</v>
       </c>
       <c r="J13" s="7"/>
-      <c r="K13" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O13" s="30" t="s">
+      <c r="K13" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O13" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -35795,19 +35794,19 @@
         <v>494</v>
       </c>
       <c r="J14" s="7"/>
-      <c r="K14" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O14" s="30" t="s">
+      <c r="K14" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O14" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -35838,19 +35837,19 @@
         <v>494</v>
       </c>
       <c r="J15" s="7"/>
-      <c r="K15" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M15" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O15" s="30" t="s">
+      <c r="K15" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O15" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -35881,19 +35880,19 @@
         <v>494</v>
       </c>
       <c r="J16" s="7"/>
-      <c r="K16" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O16" s="30" t="s">
+      <c r="K16" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O16" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -35922,19 +35921,19 @@
         <v>494</v>
       </c>
       <c r="J17" s="7"/>
-      <c r="K17" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L17" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O17" s="30" t="s">
+      <c r="K17" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O17" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -35961,19 +35960,19 @@
         <v>494</v>
       </c>
       <c r="J18" s="7"/>
-      <c r="K18" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L18" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O18" s="30" t="s">
+      <c r="K18" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L18" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O18" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36002,19 +36001,19 @@
         <v>494</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="K19" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L19" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N19" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O19" s="30" t="s">
+      <c r="K19" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L19" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O19" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36043,19 +36042,19 @@
         <v>494</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N20" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O20" s="30" t="s">
+      <c r="K20" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O20" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36084,19 +36083,19 @@
         <v>494</v>
       </c>
       <c r="J21" s="7"/>
-      <c r="K21" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L21" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O21" s="30" t="s">
+      <c r="K21" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O21" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36128,19 +36127,19 @@
         <f>VLOOKUP(B22,'[1]From Spend Tech'!C$1:K$649,9,FALSE)</f>
         <v>S</v>
       </c>
-      <c r="K22" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L22" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N22" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O22" s="30" t="s">
+      <c r="K22" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O22" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36171,19 +36170,19 @@
       <c r="J23" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="K23" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L23" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M23" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O23" s="30" t="s">
+      <c r="K23" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O23" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36209,20 +36208,20 @@
       <c r="I24" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="42" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L24" s="42" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M24" s="42" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N24" s="42" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O24" s="42" t="s">
+      <c r="J24" s="32"/>
+      <c r="K24" s="41" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L24" s="41" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M24" s="41" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N24" s="41" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O24" s="41" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36253,19 +36252,19 @@
         <v>494</v>
       </c>
       <c r="J25" s="7"/>
-      <c r="K25" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L25" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M25" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O25" s="30" t="s">
+      <c r="K25" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O25" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36294,19 +36293,19 @@
         <v>494</v>
       </c>
       <c r="J26" s="7"/>
-      <c r="K26" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L26" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M26" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N26" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O26" s="30" t="s">
+      <c r="K26" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O26" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36333,19 +36332,19 @@
         <v>494</v>
       </c>
       <c r="J27" s="7"/>
-      <c r="K27" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L27" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M27" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O27" s="30" t="s">
+      <c r="K27" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O27" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36372,19 +36371,19 @@
         <v>494</v>
       </c>
       <c r="J28" s="7"/>
-      <c r="K28" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L28" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M28" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O28" s="30" t="s">
+      <c r="K28" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O28" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36413,19 +36412,19 @@
         <v>494</v>
       </c>
       <c r="J29" s="7"/>
-      <c r="K29" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L29" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M29" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N29" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O29" s="30" t="s">
+      <c r="K29" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L29" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O29" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36452,19 +36451,19 @@
         <v>494</v>
       </c>
       <c r="J30" s="7"/>
-      <c r="K30" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L30" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M30" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N30" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O30" s="30" t="s">
+      <c r="K30" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L30" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N30" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O30" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36493,19 +36492,19 @@
         <v>494</v>
       </c>
       <c r="J31" s="7"/>
-      <c r="K31" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L31" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M31" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N31" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O31" s="30" t="s">
+      <c r="K31" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L31" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N31" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O31" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36537,19 +36536,19 @@
         <f>VLOOKUP(B32,'[1]From Spend Tech'!C$1:K$649,9,FALSE)</f>
         <v>S</v>
       </c>
-      <c r="K32" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L32" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M32" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N32" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O32" s="30" t="s">
+      <c r="K32" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L32" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N32" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O32" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36578,19 +36577,19 @@
         <v>494</v>
       </c>
       <c r="J33" s="7"/>
-      <c r="K33" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L33" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M33" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N33" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O33" s="30" t="s">
+      <c r="K33" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L33" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O33" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36621,19 +36620,19 @@
         <v>494</v>
       </c>
       <c r="J34" s="7"/>
-      <c r="K34" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L34" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M34" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N34" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O34" s="30" t="s">
+      <c r="K34" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O34" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36664,19 +36663,19 @@
         <v>494</v>
       </c>
       <c r="J35" s="7"/>
-      <c r="K35" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L35" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M35" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N35" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O35" s="30" t="s">
+      <c r="K35" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L35" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N35" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O35" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36707,19 +36706,19 @@
         <v>494</v>
       </c>
       <c r="J36" s="7"/>
-      <c r="K36" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L36" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M36" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N36" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O36" s="30" t="s">
+      <c r="K36" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N36" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O36" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36748,19 +36747,19 @@
         <v>494</v>
       </c>
       <c r="J37" s="7"/>
-      <c r="K37" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L37" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M37" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N37" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O37" s="30" t="s">
+      <c r="K37" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N37" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O37" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36791,19 +36790,19 @@
         <v>494</v>
       </c>
       <c r="J38" s="7"/>
-      <c r="K38" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L38" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M38" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N38" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O38" s="30" t="s">
+      <c r="K38" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L38" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O38" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36832,19 +36831,19 @@
         <v>494</v>
       </c>
       <c r="J39" s="7"/>
-      <c r="K39" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L39" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M39" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N39" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O39" s="30" t="s">
+      <c r="K39" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O39" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36875,19 +36874,19 @@
         <v>494</v>
       </c>
       <c r="J40" s="7"/>
-      <c r="K40" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L40" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M40" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N40" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O40" s="30" t="s">
+      <c r="K40" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L40" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O40" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36918,19 +36917,19 @@
         <v>494</v>
       </c>
       <c r="J41" s="7"/>
-      <c r="K41" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L41" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M41" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N41" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O41" s="30" t="s">
+      <c r="K41" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L41" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O41" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -36959,19 +36958,19 @@
         <v>494</v>
       </c>
       <c r="J42" s="7"/>
-      <c r="K42" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L42" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M42" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N42" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O42" s="30" t="s">
+      <c r="K42" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L42" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M42" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N42" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O42" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -37000,19 +36999,19 @@
         <v>494</v>
       </c>
       <c r="J43" s="7"/>
-      <c r="K43" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L43" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M43" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N43" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O43" s="30" t="s">
+      <c r="K43" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L43" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N43" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O43" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -37041,19 +37040,19 @@
         <v>494</v>
       </c>
       <c r="J44" s="7"/>
-      <c r="K44" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L44" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M44" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N44" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O44" s="30" t="s">
+      <c r="K44" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L44" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N44" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O44" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -37080,19 +37079,19 @@
         <v>566</v>
       </c>
       <c r="J45" s="7"/>
-      <c r="K45" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L45" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M45" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N45" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O45" s="30" t="s">
+      <c r="K45" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L45" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M45" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N45" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O45" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -37119,19 +37118,19 @@
         <v>566</v>
       </c>
       <c r="J46" s="7"/>
-      <c r="K46" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L46" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M46" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N46" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O46" s="30" t="s">
+      <c r="K46" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L46" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M46" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N46" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O46" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -37160,19 +37159,19 @@
         <v>566</v>
       </c>
       <c r="J47" s="7"/>
-      <c r="K47" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L47" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M47" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N47" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O47" s="30" t="s">
+      <c r="K47" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L47" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N47" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O47" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -37203,19 +37202,19 @@
         <v>566</v>
       </c>
       <c r="J48" s="7"/>
-      <c r="K48" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L48" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M48" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N48" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O48" s="30" t="s">
+      <c r="K48" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L48" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N48" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O48" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -37244,19 +37243,19 @@
         <v>494</v>
       </c>
       <c r="J49" s="7"/>
-      <c r="K49" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L49" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M49" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N49" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O49" s="30" t="s">
+      <c r="K49" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L49" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N49" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O49" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -37284,20 +37283,20 @@
       <c r="I50" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L50" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M50" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N50" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O50" s="30" t="s">
+      <c r="J50" s="29"/>
+      <c r="K50" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L50" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M50" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N50" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O50" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -37323,20 +37322,20 @@
       <c r="I51" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L51" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M51" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N51" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O51" s="30" t="s">
+      <c r="J51" s="29"/>
+      <c r="K51" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L51" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N51" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O51" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -37362,23 +37361,23 @@
       <c r="I52" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="J52" s="30" t="str">
+      <c r="J52" s="29" t="str">
         <f>VLOOKUP(B52,'[1]From Spend Tech'!C$1:K$649,9,FALSE)</f>
         <v>S</v>
       </c>
-      <c r="K52" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L52" s="30" t="s">
+      <c r="K52" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L52" s="29" t="s">
         <v>1176</v>
       </c>
-      <c r="M52" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N52" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O52" s="30" t="s">
+      <c r="M52" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N52" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O52" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -37404,20 +37403,20 @@
       <c r="I53" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L53" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M53" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N53" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O53" s="30" t="s">
+      <c r="J53" s="29"/>
+      <c r="K53" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L53" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N53" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O53" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -37443,20 +37442,20 @@
       <c r="I54" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L54" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M54" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N54" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O54" s="30" t="s">
+      <c r="J54" s="29"/>
+      <c r="K54" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L54" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M54" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N54" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O54" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -37482,20 +37481,20 @@
       <c r="I55" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L55" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M55" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N55" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O55" s="30" t="s">
+      <c r="J55" s="29"/>
+      <c r="K55" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L55" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M55" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N55" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O55" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -37521,20 +37520,20 @@
       <c r="I56" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L56" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M56" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N56" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O56" s="30" t="s">
+      <c r="J56" s="29"/>
+      <c r="K56" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L56" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M56" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N56" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O56" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -37560,20 +37559,20 @@
       <c r="I57" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L57" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M57" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N57" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O57" s="30" t="s">
+      <c r="J57" s="29"/>
+      <c r="K57" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L57" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M57" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N57" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O57" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -37599,20 +37598,20 @@
       <c r="I58" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L58" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M58" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N58" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O58" s="30" t="s">
+      <c r="J58" s="29"/>
+      <c r="K58" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L58" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M58" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N58" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O58" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -37638,20 +37637,20 @@
       <c r="I59" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L59" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M59" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N59" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O59" s="30" t="s">
+      <c r="J59" s="29"/>
+      <c r="K59" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L59" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M59" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N59" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O59" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -37677,20 +37676,20 @@
       <c r="I60" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L60" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M60" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N60" s="30" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O60" s="30" t="s">
+      <c r="J60" s="29"/>
+      <c r="K60" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L60" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M60" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N60" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O60" s="29" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -38053,7 +38052,7 @@
         <v>75</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="1"/>
@@ -39225,13 +39224,13 @@
         <v>255</v>
       </c>
       <c r="E98" s="1"/>
-      <c r="F98" s="33" t="s">
+      <c r="F98" s="32" t="s">
         <v>1071</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="H98" s="30" t="s">
+      <c r="H98" s="29" t="s">
         <v>1072</v>
       </c>
       <c r="I98" s="6" t="s">
@@ -39741,7 +39740,7 @@
         <v>255</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="33" t="s">
+      <c r="F110" s="32" t="s">
         <v>1090</v>
       </c>
       <c r="G110" s="7" t="s">
@@ -39784,7 +39783,7 @@
         <v>255</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="33" t="s">
+      <c r="F111" s="32" t="s">
         <v>1092</v>
       </c>
       <c r="G111" s="7" t="s">
@@ -39827,7 +39826,7 @@
         <v>255</v>
       </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="33" t="s">
+      <c r="F112" s="32" t="s">
         <v>1094</v>
       </c>
       <c r="G112" s="7" t="s">
@@ -40395,7 +40394,7 @@
         <v>255</v>
       </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="33" t="s">
+      <c r="F126" s="32" t="s">
         <v>1108</v>
       </c>
       <c r="G126" s="7" t="s">
@@ -41421,20 +41420,20 @@
       <c r="I150" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="J150" s="30"/>
-      <c r="K150" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L150" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M150" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N150" s="30" t="s">
-        <v>1157</v>
-      </c>
-      <c r="O150" s="30" t="s">
+      <c r="J150" s="29"/>
+      <c r="K150" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L150" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M150" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N150" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="O150" s="29" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -54893,10 +54892,10 @@
       <c r="B474" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="C474" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F474" s="31"/>
+      <c r="C474" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F474" s="30"/>
       <c r="G474" s="7" t="s">
         <v>1112</v>
       </c>
@@ -54906,20 +54905,20 @@
       <c r="I474" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="J474" s="28"/>
-      <c r="K474" s="28" t="s">
+      <c r="J474" s="27"/>
+      <c r="K474" s="27" t="s">
         <v>1173</v>
       </c>
-      <c r="L474" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M474" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="N474" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O474" s="28" t="s">
+      <c r="L474" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M474" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N474" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O474" s="27" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -54930,33 +54929,33 @@
       <c r="B475" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="C475" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F475" s="29"/>
-      <c r="G475" s="30" t="s">
+      <c r="C475" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F475" s="28"/>
+      <c r="G475" s="29" t="s">
         <v>1112</v>
       </c>
-      <c r="H475" s="30" t="s">
+      <c r="H475" s="29" t="s">
         <v>1113</v>
       </c>
-      <c r="I475" s="32" t="s">
+      <c r="I475" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="J475" s="28"/>
-      <c r="K475" s="28" t="s">
+      <c r="J475" s="27"/>
+      <c r="K475" s="27" t="s">
         <v>1173</v>
       </c>
-      <c r="L475" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M475" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="N475" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O475" s="28" t="s">
+      <c r="L475" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M475" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N475" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O475" s="27" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -54967,33 +54966,33 @@
       <c r="B476" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="C476" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F476" s="29"/>
-      <c r="G476" s="30" t="s">
+      <c r="C476" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F476" s="28"/>
+      <c r="G476" s="29" t="s">
         <v>1112</v>
       </c>
-      <c r="H476" s="30" t="s">
+      <c r="H476" s="29" t="s">
         <v>1113</v>
       </c>
-      <c r="I476" s="32" t="s">
+      <c r="I476" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="J476" s="28"/>
-      <c r="K476" s="28" t="s">
+      <c r="J476" s="27"/>
+      <c r="K476" s="27" t="s">
         <v>1173</v>
       </c>
-      <c r="L476" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M476" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="N476" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O476" s="28" t="s">
+      <c r="L476" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M476" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N476" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O476" s="27" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -55004,33 +55003,33 @@
       <c r="B477" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="C477" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F477" s="29"/>
-      <c r="G477" s="30" t="s">
+      <c r="C477" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F477" s="28"/>
+      <c r="G477" s="29" t="s">
         <v>1112</v>
       </c>
-      <c r="H477" s="30" t="s">
+      <c r="H477" s="29" t="s">
         <v>1113</v>
       </c>
-      <c r="I477" s="32" t="s">
+      <c r="I477" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="J477" s="28"/>
-      <c r="K477" s="28" t="s">
+      <c r="J477" s="27"/>
+      <c r="K477" s="27" t="s">
         <v>1173</v>
       </c>
-      <c r="L477" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M477" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="N477" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O477" s="28" t="s">
+      <c r="L477" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M477" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N477" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O477" s="27" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -55041,33 +55040,33 @@
       <c r="B478" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="C478" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F478" s="29"/>
-      <c r="G478" s="30" t="s">
+      <c r="C478" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F478" s="28"/>
+      <c r="G478" s="29" t="s">
         <v>1112</v>
       </c>
-      <c r="H478" s="30" t="s">
+      <c r="H478" s="29" t="s">
         <v>1113</v>
       </c>
-      <c r="I478" s="32" t="s">
+      <c r="I478" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="J478" s="28"/>
-      <c r="K478" s="28" t="s">
+      <c r="J478" s="27"/>
+      <c r="K478" s="27" t="s">
         <v>1173</v>
       </c>
-      <c r="L478" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M478" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="N478" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O478" s="28" t="s">
+      <c r="L478" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M478" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N478" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O478" s="27" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -55078,33 +55077,33 @@
       <c r="B479" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="C479" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F479" s="29"/>
-      <c r="G479" s="30" t="s">
+      <c r="C479" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F479" s="28"/>
+      <c r="G479" s="29" t="s">
         <v>1112</v>
       </c>
-      <c r="H479" s="30" t="s">
+      <c r="H479" s="29" t="s">
         <v>1113</v>
       </c>
-      <c r="I479" s="32" t="s">
+      <c r="I479" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="J479" s="28"/>
-      <c r="K479" s="28" t="s">
+      <c r="J479" s="27"/>
+      <c r="K479" s="27" t="s">
         <v>1173</v>
       </c>
-      <c r="L479" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M479" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="N479" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O479" s="28" t="s">
+      <c r="L479" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M479" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N479" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O479" s="27" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -55115,33 +55114,33 @@
       <c r="B480" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="C480" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F480" s="29"/>
-      <c r="G480" s="30" t="s">
+      <c r="C480" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F480" s="28"/>
+      <c r="G480" s="29" t="s">
         <v>1112</v>
       </c>
-      <c r="H480" s="30" t="s">
+      <c r="H480" s="29" t="s">
         <v>1113</v>
       </c>
-      <c r="I480" s="32" t="s">
+      <c r="I480" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="J480" s="28"/>
-      <c r="K480" s="28" t="s">
+      <c r="J480" s="27"/>
+      <c r="K480" s="27" t="s">
         <v>1173</v>
       </c>
-      <c r="L480" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M480" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="N480" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O480" s="28" t="s">
+      <c r="L480" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M480" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N480" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O480" s="27" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -55152,33 +55151,33 @@
       <c r="B481" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="C481" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F481" s="29"/>
-      <c r="G481" s="30" t="s">
+      <c r="C481" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F481" s="28"/>
+      <c r="G481" s="29" t="s">
         <v>1112</v>
       </c>
-      <c r="H481" s="30" t="s">
+      <c r="H481" s="29" t="s">
         <v>1113</v>
       </c>
-      <c r="I481" s="32" t="s">
+      <c r="I481" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="J481" s="28"/>
-      <c r="K481" s="28" t="s">
+      <c r="J481" s="27"/>
+      <c r="K481" s="27" t="s">
         <v>1173</v>
       </c>
-      <c r="L481" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M481" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="N481" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O481" s="28" t="s">
+      <c r="L481" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M481" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N481" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O481" s="27" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -55189,33 +55188,33 @@
       <c r="B482" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="C482" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F482" s="29"/>
-      <c r="G482" s="30" t="s">
+      <c r="C482" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F482" s="28"/>
+      <c r="G482" s="29" t="s">
         <v>1112</v>
       </c>
-      <c r="H482" s="30" t="s">
+      <c r="H482" s="29" t="s">
         <v>1113</v>
       </c>
-      <c r="I482" s="32" t="s">
+      <c r="I482" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="J482" s="28"/>
-      <c r="K482" s="28" t="s">
+      <c r="J482" s="27"/>
+      <c r="K482" s="27" t="s">
         <v>1173</v>
       </c>
-      <c r="L482" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M482" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="N482" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O482" s="28" t="s">
+      <c r="L482" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M482" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N482" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O482" s="27" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -55226,33 +55225,33 @@
       <c r="B483" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="C483" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F483" s="29"/>
-      <c r="G483" s="30" t="s">
+      <c r="C483" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F483" s="28"/>
+      <c r="G483" s="29" t="s">
         <v>1112</v>
       </c>
-      <c r="H483" s="30" t="s">
+      <c r="H483" s="29" t="s">
         <v>1113</v>
       </c>
-      <c r="I483" s="32" t="s">
+      <c r="I483" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="J483" s="28"/>
-      <c r="K483" s="28" t="s">
+      <c r="J483" s="27"/>
+      <c r="K483" s="27" t="s">
         <v>1173</v>
       </c>
-      <c r="L483" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M483" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="N483" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O483" s="28" t="s">
+      <c r="L483" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M483" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="N483" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O483" s="27" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -55273,13 +55272,13 @@
       <c r="F484" s="7" t="s">
         <v>1124</v>
       </c>
-      <c r="G484" s="30" t="s">
+      <c r="G484" s="29" t="s">
         <v>593</v>
       </c>
-      <c r="H484" s="30" t="s">
+      <c r="H484" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="I484" s="32" t="s">
+      <c r="I484" s="31" t="s">
         <v>494</v>
       </c>
       <c r="J484" s="22"/>
@@ -55315,29 +55314,29 @@
       <c r="F485" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="G485" s="30" t="s">
+      <c r="G485" s="29" t="s">
         <v>593</v>
       </c>
-      <c r="H485" s="30" t="s">
+      <c r="H485" s="29" t="s">
         <v>1072</v>
       </c>
-      <c r="I485" s="32" t="s">
+      <c r="I485" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="J485" s="28"/>
-      <c r="K485" s="28" t="s">
-        <v>1157</v>
-      </c>
-      <c r="L485" s="28" t="s">
+      <c r="J485" s="27"/>
+      <c r="K485" s="27" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L485" s="27" t="s">
         <v>1159</v>
       </c>
-      <c r="M485" s="28" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N485" s="28" t="s">
-        <v>1158</v>
-      </c>
-      <c r="O485" s="28" t="s">
+      <c r="M485" s="27" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N485" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="O485" s="27" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -55471,7 +55470,7 @@
       <c r="G489" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="I489" s="32" t="s">
+      <c r="I489" s="31" t="s">
         <v>494</v>
       </c>
       <c r="K489" s="4" t="s">
@@ -55506,7 +55505,7 @@
       <c r="G490" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="I490" s="32" t="s">
+      <c r="I490" s="31" t="s">
         <v>494</v>
       </c>
       <c r="K490" s="4" t="s">
@@ -55535,12 +55534,12 @@
       <c r="C491" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D491" s="40"/>
-      <c r="E491" s="40"/>
+      <c r="D491" s="39"/>
+      <c r="E491" s="39"/>
       <c r="F491" s="12" t="s">
         <v>1146</v>
       </c>
-      <c r="G491" s="30"/>
+      <c r="G491" s="29"/>
       <c r="H491"/>
       <c r="I491"/>
       <c r="J491"/>
@@ -55573,12 +55572,12 @@
       <c r="C492" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D492" s="40"/>
-      <c r="E492" s="40"/>
+      <c r="D492" s="39"/>
+      <c r="E492" s="39"/>
       <c r="F492" s="12" t="s">
         <v>1150</v>
       </c>
-      <c r="G492" s="30"/>
+      <c r="G492" s="29"/>
       <c r="H492"/>
       <c r="I492"/>
       <c r="J492"/>
@@ -55614,11 +55613,11 @@
       <c r="D493" s="24">
         <v>255</v>
       </c>
-      <c r="E493" s="40"/>
+      <c r="E493" s="39"/>
       <c r="F493" s="12" t="s">
         <v>1147</v>
       </c>
-      <c r="G493" s="30"/>
+      <c r="G493" s="29"/>
       <c r="H493"/>
       <c r="I493"/>
       <c r="J493"/>
@@ -55654,11 +55653,11 @@
       <c r="D494" s="24">
         <v>255</v>
       </c>
-      <c r="E494" s="40"/>
+      <c r="E494" s="39"/>
       <c r="F494" s="12" t="s">
         <v>1148</v>
       </c>
-      <c r="G494" s="30"/>
+      <c r="G494" s="29"/>
       <c r="H494"/>
       <c r="I494"/>
       <c r="J494"/>
@@ -55691,12 +55690,12 @@
       <c r="C495" s="24" t="s">
         <v>591</v>
       </c>
-      <c r="D495" s="40"/>
-      <c r="E495" s="40"/>
+      <c r="D495" s="39"/>
+      <c r="E495" s="39"/>
       <c r="F495" s="12" t="s">
         <v>1149</v>
       </c>
-      <c r="G495" s="30"/>
+      <c r="G495" s="29"/>
       <c r="H495"/>
       <c r="I495"/>
       <c r="J495"/>
@@ -55743,7 +55742,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>1127</v>
       </c>
       <c r="B3" t="s">
@@ -55751,162 +55750,162 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>801</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>1022</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>1042</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>826</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>1056</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>865</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>532</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>681</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="34" t="s">
         <v>793</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>499</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>786</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="35">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>778</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>520</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
         <v>957</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>736</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>928</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="34" t="s">
         <v>556</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="35">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="34" t="s">
         <v>858</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="35">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>1045</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="35">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="34" t="s">
         <v>654</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="35">
         <v>6</v>
       </c>
       <c r="C23" t="s">
@@ -55914,10 +55913,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="34" t="s">
         <v>493</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="35">
         <v>5</v>
       </c>
       <c r="C24" t="s">
@@ -55925,10 +55924,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="34" t="s">
         <v>593</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="35">
         <v>54</v>
       </c>
       <c r="C25" t="s">
@@ -55936,10 +55935,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="34" t="s">
         <v>565</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="35">
         <v>23</v>
       </c>
       <c r="C26" t="s">
@@ -55947,10 +55946,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="34" t="s">
         <v>702</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="35">
         <v>7</v>
       </c>
       <c r="C27" t="s">
@@ -55958,10 +55957,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="34" t="s">
         <v>713</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="35">
         <v>3</v>
       </c>
       <c r="C28" t="s">
@@ -55969,10 +55968,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="34" t="s">
         <v>834</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="35">
         <v>22</v>
       </c>
       <c r="C29" t="s">
@@ -55980,10 +55979,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="34" t="s">
         <v>977</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="35">
         <v>32</v>
       </c>
       <c r="C30" t="s">
@@ -55991,10 +55990,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="34" t="s">
         <v>608</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="35">
         <v>29</v>
       </c>
       <c r="C31" t="s">
@@ -56002,10 +56001,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="34" t="s">
         <v>605</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="35">
         <v>11</v>
       </c>
       <c r="C32" t="s">
@@ -56013,10 +56012,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="34" t="s">
         <v>590</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="35">
         <v>8</v>
       </c>
       <c r="C33" t="s">
@@ -56024,10 +56023,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="34" t="s">
         <v>961</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="35">
         <v>3</v>
       </c>
       <c r="C34" t="s">
@@ -56035,10 +56034,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="35">
         <v>8</v>
       </c>
       <c r="C35" t="s">
@@ -56046,10 +56045,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="34" t="s">
         <v>1112</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="35">
         <v>12</v>
       </c>
       <c r="C36" t="s">
@@ -56057,10 +56056,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="34" t="s">
         <v>1129</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="35">
         <v>736</v>
       </c>
     </row>
@@ -56088,1257 +56087,1257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>1152</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>1153</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>1154</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>1155</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>1139</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E2" s="38"/>
+      <c r="B2" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>481</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E3" s="38"/>
+      <c r="D3" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>1140</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E4" s="38"/>
+      <c r="C4" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E5" s="38"/>
+      <c r="D5" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C6" s="38" t="s">
+      <c r="B6" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E6" s="38"/>
+      <c r="D6" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E7" s="38"/>
+      <c r="D7" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E8" s="38"/>
+      <c r="D8" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>1131</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E9" s="38"/>
+      <c r="D9" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>1132</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E10" s="38"/>
+      <c r="D10" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>1133</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C11" s="38" t="s">
+      <c r="B11" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E11" s="38"/>
+      <c r="D11" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C12" s="38" t="s">
+      <c r="B12" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C12" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E12" s="38" t="s">
+      <c r="D12" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="37" t="s">
         <v>1125</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C13" s="38" t="s">
+      <c r="B13" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E13" s="38"/>
+      <c r="D13" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C14" s="38" t="s">
+      <c r="B14" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E14" s="38"/>
+      <c r="D14" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E15" s="38" t="s">
+      <c r="D15" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E15" s="37" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E16" s="38" t="s">
+      <c r="D16" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E16" s="37" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D17" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E17" s="38" t="s">
+      <c r="D17" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E17" s="37" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E18" s="38" t="s">
+      <c r="D18" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C19" s="38" t="s">
+      <c r="B19" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D19" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E19" s="38" t="s">
+      <c r="D19" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C20" s="38" t="s">
+      <c r="B20" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C20" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E20" s="38" t="s">
+      <c r="D20" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C21" s="38" t="s">
+      <c r="B21" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D21" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E21" s="38" t="s">
+      <c r="D21" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E21" s="37" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C22" s="38" t="s">
+      <c r="B22" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E22" s="38" t="s">
+      <c r="D22" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E22" s="37" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="37" t="s">
         <v>1093</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C23" s="38" t="s">
+      <c r="B23" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E23" s="38" t="s">
+      <c r="D23" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E23" s="37" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C24" s="38" t="s">
+      <c r="B24" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C24" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E24" s="38" t="s">
+      <c r="D24" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E24" s="37" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="37" t="s">
         <v>1091</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C25" s="38" t="s">
+      <c r="B25" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D25" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E25" s="38"/>
+      <c r="D25" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C26" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D26" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E26" s="38" t="s">
+      <c r="D26" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E26" s="37" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C27" s="38" t="s">
+      <c r="B27" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C27" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E27" s="38" t="s">
+      <c r="D27" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E27" s="37" t="s">
         <v>1166</v>
       </c>
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C28" s="38" t="s">
+      <c r="B28" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C28" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D28" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E28" s="38" t="s">
+      <c r="D28" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E28" s="37" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C29" s="38" t="s">
+      <c r="B29" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C29" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D29" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E29" s="38"/>
+      <c r="D29" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E29" s="37"/>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C30" s="38" t="s">
+      <c r="B30" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C30" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D30" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E30" s="38" t="s">
+      <c r="D30" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E30" s="37" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C31" s="38" t="s">
+      <c r="B31" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C31" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D31" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E31" s="38"/>
+      <c r="D31" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E31" s="37"/>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C32" s="38" t="s">
+      <c r="B32" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C32" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D32" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E32" s="38"/>
+      <c r="D32" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E32" s="37"/>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="B33" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C33" s="38" t="s">
+      <c r="B33" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C33" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D33" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E33" s="38"/>
+      <c r="D33" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E33" s="37"/>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C34" s="38" t="s">
+      <c r="B34" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C34" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D34" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E34" s="38"/>
+      <c r="D34" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E34" s="37"/>
     </row>
     <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="37" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C35" s="38" t="s">
+      <c r="B35" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C35" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D35" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E35" s="38"/>
+      <c r="D35" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E35" s="37"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="37" t="s">
         <v>1095</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C36" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E36" s="38"/>
+      <c r="C36" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E36" s="37"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="37" t="s">
         <v>1098</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C37" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D37" s="38" t="s">
+      <c r="C37" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D37" s="37" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="B38" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C38" s="38" t="s">
+      <c r="B38" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C38" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D38" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E38" s="38"/>
+      <c r="D38" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E38" s="37"/>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C39" s="38" t="s">
+      <c r="B39" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C39" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D39" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E39" s="38"/>
+      <c r="D39" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E39" s="37"/>
     </row>
     <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C40" s="38" t="s">
+      <c r="B40" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C40" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D40" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E40" s="39" t="s">
+      <c r="D40" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E40" s="38" t="s">
         <v>1168</v>
       </c>
     </row>
     <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C41" s="38" t="s">
+      <c r="B41" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C41" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D41" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E41" s="38" t="s">
+      <c r="D41" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E41" s="37" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C42" s="38" t="s">
+      <c r="B42" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C42" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D42" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E42" s="38"/>
+      <c r="D42" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E42" s="37"/>
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="37" t="s">
         <v>429</v>
       </c>
-      <c r="B43" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C43" s="38" t="s">
+      <c r="B43" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C43" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D43" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E43" s="38"/>
+      <c r="D43" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E43" s="37"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C44" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E44" s="38"/>
+      <c r="C44" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E44" s="37"/>
     </row>
     <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C45" s="38" t="s">
+      <c r="B45" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C45" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D45" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E45" s="38" t="s">
+      <c r="D45" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E45" s="37" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C46" s="38" t="s">
+      <c r="B46" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C46" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D46" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E46" s="38"/>
+      <c r="D46" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E46" s="37"/>
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C47" s="38" t="s">
+      <c r="B47" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C47" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D47" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E47" s="38"/>
+      <c r="D47" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E47" s="37"/>
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C48" s="38" t="s">
+      <c r="B48" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C48" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D48" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E48" s="38"/>
+      <c r="D48" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E48" s="37"/>
     </row>
     <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="B49" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C49" s="38" t="s">
+      <c r="B49" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C49" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D49" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E49" s="38" t="s">
+      <c r="D49" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E49" s="37" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="37" t="s">
         <v>1088</v>
       </c>
-      <c r="B50" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C50" s="38" t="s">
+      <c r="B50" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C50" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D50" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E50" s="38" t="s">
+      <c r="D50" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E50" s="37" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="37" t="s">
         <v>1083</v>
       </c>
-      <c r="B51" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C51" s="38" t="s">
+      <c r="B51" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C51" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D51" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E51" s="38"/>
+      <c r="D51" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E51" s="37"/>
     </row>
     <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="37" t="s">
         <v>1086</v>
       </c>
-      <c r="B52" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C52" s="38" t="s">
+      <c r="B52" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C52" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D52" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E52" s="38"/>
+      <c r="D52" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E52" s="37"/>
     </row>
     <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="37" t="s">
         <v>1080</v>
       </c>
-      <c r="B53" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C53" s="38" t="s">
+      <c r="B53" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C53" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D53" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E53" s="38" t="s">
+      <c r="D53" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E53" s="37" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="37" t="s">
         <v>1077</v>
       </c>
-      <c r="B54" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C54" s="38" t="s">
+      <c r="B54" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C54" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D54" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E54" s="38" t="s">
+      <c r="D54" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E54" s="37" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C55" s="38" t="s">
+      <c r="B55" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C55" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D55" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E55" s="38"/>
+      <c r="D55" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E55" s="37"/>
     </row>
     <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="37" t="s">
         <v>1074</v>
       </c>
-      <c r="B56" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C56" s="38" t="s">
+      <c r="B56" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C56" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D56" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E56" s="38"/>
+      <c r="D56" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E56" s="37"/>
     </row>
     <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C57" s="38" t="s">
+      <c r="B57" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C57" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D57" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E57" s="38" t="s">
+      <c r="D57" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E57" s="37" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="37" t="s">
         <v>428</v>
       </c>
-      <c r="B58" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C58" s="38" t="s">
+      <c r="B58" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C58" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D58" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E58" s="38"/>
+      <c r="D58" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E58" s="37"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="37" t="s">
         <v>1114</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C59" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E59" s="38"/>
+      <c r="C59" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E59" s="37"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="37" t="s">
         <v>1123</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C60" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E60" s="38"/>
+      <c r="C60" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E60" s="37"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="37" t="s">
         <v>1115</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C61" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E61" s="38"/>
+      <c r="C61" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E61" s="37"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="37" t="s">
         <v>1116</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C62" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E62" s="38"/>
+      <c r="C62" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E62" s="37"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="38" t="s">
+      <c r="A63" s="37" t="s">
         <v>1117</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C63" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E63" s="38"/>
+      <c r="C63" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E63" s="37"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="37" t="s">
         <v>1118</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C64" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E64" s="38"/>
+      <c r="C64" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E64" s="37"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="37" t="s">
         <v>1119</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C65" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E65" s="38"/>
+      <c r="C65" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E65" s="37"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="38" t="s">
+      <c r="A66" s="37" t="s">
         <v>1120</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C66" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E66" s="38"/>
+      <c r="C66" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E66" s="37"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="37" t="s">
         <v>1121</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C67" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E67" s="38"/>
+      <c r="C67" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E67" s="37"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="37" t="s">
         <v>1122</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C68" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E68" s="38"/>
+      <c r="C68" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E68" s="37"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="37" t="s">
         <v>1136</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C69" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E69" s="38"/>
+      <c r="C69" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E69" s="37"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="37" t="s">
         <v>1171</v>
       </c>
-      <c r="D70" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E70" s="38"/>
+      <c r="D70" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E70" s="37"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="37" t="s">
         <v>1137</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C71" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E71" s="38"/>
+      <c r="C71" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E71" s="37"/>
     </row>
     <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="B72" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C72" s="38" t="s">
+      <c r="B72" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C72" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D72" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E72" s="38"/>
+      <c r="D72" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E72" s="37"/>
     </row>
     <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="B73" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C73" s="38" t="s">
+      <c r="B73" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C73" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D73" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E73" s="38"/>
+      <c r="D73" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E73" s="37"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="38" t="s">
+      <c r="A74" s="37" t="s">
         <v>1138</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C74" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D74" s="38" t="s">
+      <c r="C74" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D74" s="37" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="37" t="s">
         <v>1160</v>
       </c>
-      <c r="C75" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E75" s="38"/>
+      <c r="C75" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E75" s="37"/>
     </row>
     <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="38" t="s">
+      <c r="A76" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="B76" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C76" s="38" t="s">
+      <c r="B76" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C76" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D76" s="38" t="s">
+      <c r="D76" s="37" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="38" t="s">
+      <c r="A77" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="B77" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C77" s="38" t="s">
+      <c r="B77" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C77" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="37" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="B78" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C78" s="38" t="s">
+      <c r="B78" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C78" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D78" s="38" t="s">
+      <c r="D78" s="37" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="38" t="s">
+      <c r="A79" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="B79" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C79" s="38" t="s">
+      <c r="B79" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C79" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D79" s="38" t="s">
+      <c r="D79" s="37" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="38" t="s">
+      <c r="A80" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="B80" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C80" s="38" t="s">
+      <c r="B80" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C80" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D80" s="38" t="s">
+      <c r="D80" s="37" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C81" s="38" t="s">
+      <c r="B81" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C81" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D81" s="38" t="s">
+      <c r="D81" s="37" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -57346,13 +57345,13 @@
       <c r="A82" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C82" s="38" t="s">
+      <c r="B82" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C82" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D82" s="38" t="s">
+      <c r="D82" s="37" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -57360,13 +57359,13 @@
       <c r="A83" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C83" s="38" t="s">
+      <c r="B83" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C83" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D83" s="38" t="s">
+      <c r="D83" s="37" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -57374,13 +57373,13 @@
       <c r="A84" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C84" s="38" t="s">
+      <c r="B84" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C84" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D84" s="38" t="s">
+      <c r="D84" s="37" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -57388,13 +57387,13 @@
       <c r="A85" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B85" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C85" s="38" t="s">
+      <c r="B85" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C85" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D85" s="38" t="s">
+      <c r="D85" s="37" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -57402,13 +57401,13 @@
       <c r="A86" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B86" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C86" s="38" t="s">
+      <c r="B86" s="37" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C86" s="37" t="s">
         <v>1159</v>
       </c>
-      <c r="D86" s="38" t="s">
+      <c r="D86" s="37" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -57428,15 +57427,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BCF26070EBB9584A81C1F69BD209A156" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="92eb8afa4084cc64bec0c5b57dec0e57">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c60b5439-a346-4f50-a4a5-eb868e3250f4" xmlns:ns4="efc15a28-dc10-4286-9431-5ed102b98316" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5bf01575b194eeee796f7a095281951" ns3:_="" ns4:_="">
     <xsd:import namespace="c60b5439-a346-4f50-a4a5-eb868e3250f4"/>
@@ -57659,6 +57649,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -57666,14 +57665,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{537A321A-B9CF-4FE7-9D50-929CAC94B90F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69871EBC-1B73-4E3C-87A2-B6DB6B3C4C7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -57688,6 +57679,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{537A321A-B9CF-4FE7-9D50-929CAC94B90F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Spend2.0_DatabaseDesign - SSDL7658_updated - with Input and Normalized flags_V.2.xlsx
+++ b/Spend2.0_DatabaseDesign - SSDL7658_updated - with Input and Normalized flags_V.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GEP_Projects\SSDL-7658\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB7E9C6-14FE-4C21-8F70-5519286AE95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5AB7CD-475F-4D47-BF31-4261BC79714B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{84E9CE72-CBCC-491B-BF3F-CD4C4EAC97BC}"/>
   </bookViews>
@@ -27037,7 +27037,7 @@
         <v>72</v>
       </c>
       <c r="C67" s="14" t="str">
-        <f t="shared" ref="C67:C130" si="1">IF(OR(B67 = D67, (B67= "string"), (B67= "boolean"), (B67= "double")), "", "no")</f>
+        <f t="shared" ref="C67:C113" si="1">IF(OR(B67 = D67, (B67= "string"), (B67= "boolean"), (B67= "double")), "", "no")</f>
         <v>no</v>
       </c>
       <c r="D67" t="str">
@@ -34097,7 +34097,7 @@
         <v>78</v>
       </c>
       <c r="C420" s="14" t="str">
-        <f t="shared" ref="C387:C450" si="10">IF(OR(B420 = D420, (B420= "string"), (B420= "boolean"), (B420= "double")), "", "no")</f>
+        <f t="shared" ref="C420" si="10">IF(OR(B420 = D420, (B420= "string"), (B420= "boolean"), (B420= "double")), "", "no")</f>
         <v/>
       </c>
       <c r="D420" t="str">
@@ -35137,7 +35137,7 @@
         <v>74</v>
       </c>
       <c r="C472" s="14" t="str">
-        <f t="shared" ref="C451:C475" si="12">IF(OR(B472 = D472, (B472= "string"), (B472= "boolean"), (B472= "double")), "", "no")</f>
+        <f t="shared" ref="C472:C473" si="12">IF(OR(B472 = D472, (B472= "string"), (B472= "boolean"), (B472= "double")), "", "no")</f>
         <v>no</v>
       </c>
       <c r="D472" t="str">
@@ -35224,14 +35224,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8336D4-B4F8-43E5-A8F1-A931F30747CD}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:S495"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C480" sqref="A1:S495"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B496" sqref="B496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35315,7 +35315,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>490</v>
       </c>
@@ -35368,7 +35368,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>490</v>
       </c>
@@ -35423,7 +35423,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>490</v>
       </c>
@@ -35478,7 +35478,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>490</v>
       </c>
@@ -35533,7 +35533,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>490</v>
       </c>
@@ -35588,7 +35588,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>490</v>
       </c>
@@ -35646,7 +35646,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>490</v>
       </c>
@@ -35702,7 +35702,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>490</v>
       </c>
@@ -35755,7 +35755,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>490</v>
       </c>
@@ -35808,7 +35808,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>490</v>
       </c>
@@ -35861,7 +35861,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>490</v>
       </c>
@@ -35916,7 +35916,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>490</v>
       </c>
@@ -35969,7 +35969,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>490</v>
       </c>
@@ -36022,7 +36022,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>490</v>
       </c>
@@ -36077,7 +36077,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>490</v>
       </c>
@@ -36132,7 +36132,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>490</v>
       </c>
@@ -36185,7 +36185,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>490</v>
       </c>
@@ -36236,7 +36236,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>490</v>
       </c>
@@ -36289,7 +36289,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>490</v>
       </c>
@@ -36342,7 +36342,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>490</v>
       </c>
@@ -36395,7 +36395,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>490</v>
       </c>
@@ -36451,7 +36451,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>490</v>
       </c>
@@ -36506,7 +36506,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>490</v>
       </c>
@@ -36557,7 +36557,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>490</v>
       </c>
@@ -36612,7 +36612,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>490</v>
       </c>
@@ -36665,7 +36665,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>490</v>
       </c>
@@ -36716,7 +36716,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>490</v>
       </c>
@@ -36767,7 +36767,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>490</v>
       </c>
@@ -36820,7 +36820,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>490</v>
       </c>
@@ -36871,7 +36871,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>490</v>
       </c>
@@ -36924,7 +36924,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>490</v>
       </c>
@@ -36980,7 +36980,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>490</v>
       </c>
@@ -37033,7 +37033,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>490</v>
       </c>
@@ -37088,7 +37088,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>490</v>
       </c>
@@ -37143,7 +37143,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>490</v>
       </c>
@@ -37198,7 +37198,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>490</v>
       </c>
@@ -37251,7 +37251,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>490</v>
       </c>
@@ -37306,7 +37306,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>490</v>
       </c>
@@ -37359,7 +37359,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>490</v>
       </c>
@@ -37414,7 +37414,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>490</v>
       </c>
@@ -37469,7 +37469,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>490</v>
       </c>
@@ -37522,7 +37522,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>490</v>
       </c>
@@ -37575,7 +37575,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>490</v>
       </c>
@@ -37628,7 +37628,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>490</v>
       </c>
@@ -37679,7 +37679,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>490</v>
       </c>
@@ -37730,7 +37730,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>490</v>
       </c>
@@ -37783,7 +37783,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>490</v>
       </c>
@@ -37838,7 +37838,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>490</v>
       </c>
@@ -37891,7 +37891,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>490</v>
       </c>
@@ -37944,7 +37944,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>490</v>
       </c>
@@ -37995,7 +37995,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>490</v>
       </c>
@@ -38049,7 +38049,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>490</v>
       </c>
@@ -38100,7 +38100,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>490</v>
       </c>
@@ -38151,7 +38151,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>490</v>
       </c>
@@ -38202,7 +38202,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>490</v>
       </c>
@@ -38253,7 +38253,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>490</v>
       </c>
@@ -38304,7 +38304,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>490</v>
       </c>
@@ -38355,7 +38355,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>490</v>
       </c>
@@ -38406,7 +38406,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>490</v>
       </c>
@@ -38457,7 +38457,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>490</v>
       </c>
@@ -38508,7 +38508,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>490</v>
       </c>
@@ -38559,7 +38559,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>490</v>
       </c>
@@ -38610,7 +38610,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>490</v>
       </c>
@@ -38661,7 +38661,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>490</v>
       </c>
@@ -38712,7 +38712,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>490</v>
       </c>
@@ -38763,7 +38763,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>490</v>
       </c>
@@ -38814,7 +38814,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>490</v>
       </c>
@@ -38916,7 +38916,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>490</v>
       </c>
@@ -39018,7 +39018,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>490</v>
       </c>
@@ -39069,7 +39069,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="24" t="s">
         <v>490</v>
       </c>
@@ -39122,7 +39122,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>490</v>
       </c>
@@ -39177,7 +39177,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>490</v>
       </c>
@@ -39230,7 +39230,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>490</v>
       </c>
@@ -39283,7 +39283,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>490</v>
       </c>
@@ -39336,7 +39336,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>490</v>
       </c>
@@ -39389,7 +39389,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>490</v>
       </c>
@@ -39442,7 +39442,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>490</v>
       </c>
@@ -39495,7 +39495,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>490</v>
       </c>
@@ -39546,7 +39546,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>490</v>
       </c>
@@ -39599,7 +39599,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>490</v>
       </c>
@@ -39652,7 +39652,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>490</v>
       </c>
@@ -39705,7 +39705,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>490</v>
       </c>
@@ -39758,7 +39758,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>490</v>
       </c>
@@ -39813,7 +39813,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>490</v>
       </c>
@@ -39868,7 +39868,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>490</v>
       </c>
@@ -39923,7 +39923,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>490</v>
       </c>
@@ -39978,7 +39978,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>490</v>
       </c>
@@ -40033,7 +40033,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>490</v>
       </c>
@@ -40088,7 +40088,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>490</v>
       </c>
@@ -40143,7 +40143,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>490</v>
       </c>
@@ -40198,7 +40198,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>490</v>
       </c>
@@ -40253,7 +40253,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>490</v>
       </c>
@@ -40308,7 +40308,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>490</v>
       </c>
@@ -40363,7 +40363,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>490</v>
       </c>
@@ -40418,7 +40418,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>490</v>
       </c>
@@ -40473,7 +40473,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>490</v>
       </c>
@@ -40528,7 +40528,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>490</v>
       </c>
@@ -40583,7 +40583,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>490</v>
       </c>
@@ -40638,7 +40638,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>490</v>
       </c>
@@ -40693,7 +40693,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>490</v>
       </c>
@@ -40748,7 +40748,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>490</v>
       </c>
@@ -40803,7 +40803,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>490</v>
       </c>
@@ -40858,7 +40858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>490</v>
       </c>
@@ -40913,7 +40913,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>490</v>
       </c>
@@ -40968,7 +40968,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>490</v>
       </c>
@@ -41023,7 +41023,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>490</v>
       </c>
@@ -41078,7 +41078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>490</v>
       </c>
@@ -41133,7 +41133,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>490</v>
       </c>
@@ -41188,7 +41188,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>490</v>
       </c>
@@ -41243,7 +41243,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>490</v>
       </c>
@@ -41294,7 +41294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>490</v>
       </c>
@@ -41347,7 +41347,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>490</v>
       </c>
@@ -41400,7 +41400,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>490</v>
       </c>
@@ -41453,7 +41453,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>490</v>
       </c>
@@ -41506,7 +41506,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>490</v>
       </c>
@@ -41559,7 +41559,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>490</v>
       </c>
@@ -41663,7 +41663,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>490</v>
       </c>
@@ -41765,7 +41765,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>490</v>
       </c>
@@ -41818,7 +41818,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>490</v>
       </c>
@@ -41871,7 +41871,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>490</v>
       </c>
@@ -41924,7 +41924,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>490</v>
       </c>
@@ -41979,7 +41979,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>490</v>
       </c>
@@ -42034,7 +42034,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>490</v>
       </c>
@@ -42089,7 +42089,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>490</v>
       </c>
@@ -42142,7 +42142,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>490</v>
       </c>
@@ -42197,7 +42197,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>490</v>
       </c>
@@ -42252,7 +42252,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>490</v>
       </c>
@@ -42307,7 +42307,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>490</v>
       </c>
@@ -42362,7 +42362,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>490</v>
       </c>
@@ -42417,7 +42417,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>490</v>
       </c>
@@ -42472,7 +42472,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>490</v>
       </c>
@@ -42527,7 +42527,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>490</v>
       </c>
@@ -42580,7 +42580,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>490</v>
       </c>
@@ -42635,7 +42635,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>490</v>
       </c>
@@ -42688,7 +42688,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>490</v>
       </c>
@@ -42746,7 +42746,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>490</v>
       </c>
@@ -42801,7 +42801,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>490</v>
       </c>
@@ -42856,7 +42856,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>490</v>
       </c>
@@ -42914,7 +42914,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>490</v>
       </c>
@@ -42967,7 +42967,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>490</v>
       </c>
@@ -43020,7 +43020,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>490</v>
       </c>
@@ -43073,7 +43073,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>490</v>
       </c>
@@ -43126,7 +43126,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>490</v>
       </c>
@@ -43178,7 +43178,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>490</v>
       </c>
@@ -43230,7 +43230,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>490</v>
       </c>
@@ -43281,7 +43281,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>490</v>
       </c>
@@ -43336,7 +43336,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>490</v>
       </c>
@@ -43391,7 +43391,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>490</v>
       </c>
@@ -43446,7 +43446,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>490</v>
       </c>
@@ -43503,7 +43503,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>490</v>
       </c>
@@ -43560,7 +43560,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>490</v>
       </c>
@@ -43617,7 +43617,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>490</v>
       </c>
@@ -43672,7 +43672,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>490</v>
       </c>
@@ -43727,7 +43727,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>490</v>
       </c>
@@ -43782,7 +43782,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>490</v>
       </c>
@@ -43837,7 +43837,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>490</v>
       </c>
@@ -43892,7 +43892,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>490</v>
       </c>
@@ -43945,7 +43945,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>490</v>
       </c>
@@ -43998,7 +43998,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>490</v>
       </c>
@@ -44051,7 +44051,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>490</v>
       </c>
@@ -44104,7 +44104,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>490</v>
       </c>
@@ -44157,7 +44157,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>490</v>
       </c>
@@ -44213,7 +44213,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>490</v>
       </c>
@@ -44269,7 +44269,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>490</v>
       </c>
@@ -44325,7 +44325,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>490</v>
       </c>
@@ -44378,7 +44378,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>490</v>
       </c>
@@ -44431,7 +44431,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>490</v>
       </c>
@@ -44484,7 +44484,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>490</v>
       </c>
@@ -44537,7 +44537,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>490</v>
       </c>
@@ -44590,7 +44590,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>490</v>
       </c>
@@ -44645,7 +44645,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>490</v>
       </c>
@@ -44703,7 +44703,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>490</v>
       </c>
@@ -44761,7 +44761,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>490</v>
       </c>
@@ -44816,7 +44816,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>490</v>
       </c>
@@ -44874,7 +44874,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>490</v>
       </c>
@@ -44929,7 +44929,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>490</v>
       </c>
@@ -44984,7 +44984,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>490</v>
       </c>
@@ -45042,7 +45042,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>490</v>
       </c>
@@ -45097,7 +45097,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>490</v>
       </c>
@@ -45150,7 +45150,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>490</v>
       </c>
@@ -45206,7 +45206,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>490</v>
       </c>
@@ -45262,7 +45262,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>490</v>
       </c>
@@ -45318,7 +45318,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>490</v>
       </c>
@@ -45374,7 +45374,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>490</v>
       </c>
@@ -45430,7 +45430,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>490</v>
       </c>
@@ -45486,7 +45486,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>490</v>
       </c>
@@ -45542,7 +45542,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>490</v>
       </c>
@@ -45595,7 +45595,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>490</v>
       </c>
@@ -45648,7 +45648,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>490</v>
       </c>
@@ -45701,7 +45701,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>490</v>
       </c>
@@ -45754,7 +45754,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>490</v>
       </c>
@@ -45807,7 +45807,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>490</v>
       </c>
@@ -45860,7 +45860,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>490</v>
       </c>
@@ -45913,7 +45913,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>490</v>
       </c>
@@ -45966,7 +45966,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>490</v>
       </c>
@@ -46019,7 +46019,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>490</v>
       </c>
@@ -46072,7 +46072,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>490</v>
       </c>
@@ -46125,7 +46125,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>490</v>
       </c>
@@ -46178,7 +46178,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>490</v>
       </c>
@@ -46231,7 +46231,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>490</v>
       </c>
@@ -46286,7 +46286,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>490</v>
       </c>
@@ -46341,7 +46341,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>490</v>
       </c>
@@ -46394,7 +46394,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>490</v>
       </c>
@@ -46447,7 +46447,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>490</v>
       </c>
@@ -46503,7 +46503,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>490</v>
       </c>
@@ -46559,7 +46559,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>490</v>
       </c>
@@ -46612,7 +46612,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>490</v>
       </c>
@@ -46665,7 +46665,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>490</v>
       </c>
@@ -46718,7 +46718,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>490</v>
       </c>
@@ -46771,7 +46771,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>490</v>
       </c>
@@ -46824,7 +46824,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>490</v>
       </c>
@@ -46877,7 +46877,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>490</v>
       </c>
@@ -46930,7 +46930,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>490</v>
       </c>
@@ -46985,7 +46985,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>490</v>
       </c>
@@ -47038,7 +47038,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>490</v>
       </c>
@@ -47089,7 +47089,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>490</v>
       </c>
@@ -47140,7 +47140,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>490</v>
       </c>
@@ -47191,7 +47191,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>490</v>
       </c>
@@ -47244,7 +47244,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>490</v>
       </c>
@@ -47300,7 +47300,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>490</v>
       </c>
@@ -47358,7 +47358,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>490</v>
       </c>
@@ -47411,7 +47411,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>490</v>
       </c>
@@ -47464,7 +47464,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>490</v>
       </c>
@@ -47515,7 +47515,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>490</v>
       </c>
@@ -47571,7 +47571,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>490</v>
       </c>
@@ -47627,7 +47627,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>490</v>
       </c>
@@ -47680,7 +47680,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>490</v>
       </c>
@@ -47733,7 +47733,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
         <v>490</v>
       </c>
@@ -47786,7 +47786,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
         <v>490</v>
       </c>
@@ -47839,7 +47839,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
         <v>490</v>
       </c>
@@ -47895,7 +47895,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>490</v>
       </c>
@@ -47951,7 +47951,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>490</v>
       </c>
@@ -48004,7 +48004,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>490</v>
       </c>
@@ -48057,7 +48057,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>490</v>
       </c>
@@ -48110,7 +48110,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
         <v>490</v>
       </c>
@@ -48163,7 +48163,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>490</v>
       </c>
@@ -48216,7 +48216,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>490</v>
       </c>
@@ -48271,7 +48271,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>490</v>
       </c>
@@ -48327,7 +48327,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>490</v>
       </c>
@@ -48380,7 +48380,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>490</v>
       </c>
@@ -48434,7 +48434,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
         <v>490</v>
       </c>
@@ -48488,7 +48488,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>490</v>
       </c>
@@ -48542,7 +48542,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>490</v>
       </c>
@@ -48595,7 +48595,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>490</v>
       </c>
@@ -48651,7 +48651,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
         <v>490</v>
       </c>
@@ -48707,7 +48707,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
         <v>490</v>
       </c>
@@ -48760,7 +48760,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
         <v>490</v>
       </c>
@@ -48813,7 +48813,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>490</v>
       </c>
@@ -48866,7 +48866,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
         <v>490</v>
       </c>
@@ -48919,7 +48919,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>490</v>
       </c>
@@ -48972,7 +48972,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
         <v>490</v>
       </c>
@@ -49025,7 +49025,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
         <v>490</v>
       </c>
@@ -49078,7 +49078,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>490</v>
       </c>
@@ -49131,7 +49131,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
         <v>490</v>
       </c>
@@ -49184,7 +49184,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
         <v>490</v>
       </c>
@@ -49237,7 +49237,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>490</v>
       </c>
@@ -49290,7 +49290,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
         <v>490</v>
       </c>
@@ -49343,7 +49343,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>490</v>
       </c>
@@ -49396,7 +49396,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
         <v>490</v>
       </c>
@@ -49449,7 +49449,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
         <v>490</v>
       </c>
@@ -49502,7 +49502,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>490</v>
       </c>
@@ -49555,7 +49555,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>490</v>
       </c>
@@ -49608,7 +49608,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>490</v>
       </c>
@@ -49661,7 +49661,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
         <v>490</v>
       </c>
@@ -49714,7 +49714,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>490</v>
       </c>
@@ -49767,7 +49767,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>490</v>
       </c>
@@ -49820,7 +49820,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>490</v>
       </c>
@@ -49873,7 +49873,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
         <v>490</v>
       </c>
@@ -49926,7 +49926,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>490</v>
       </c>
@@ -49982,7 +49982,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
         <v>490</v>
       </c>
@@ -50038,7 +50038,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
         <v>490</v>
       </c>
@@ -50094,7 +50094,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
         <v>490</v>
       </c>
@@ -50150,7 +50150,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>490</v>
       </c>
@@ -50203,7 +50203,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>490</v>
       </c>
@@ -50256,7 +50256,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
         <v>490</v>
       </c>
@@ -50309,7 +50309,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
         <v>490</v>
       </c>
@@ -50362,7 +50362,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
         <v>490</v>
       </c>
@@ -50415,7 +50415,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
         <v>490</v>
       </c>
@@ -50468,7 +50468,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
         <v>490</v>
       </c>
@@ -50521,7 +50521,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
         <v>490</v>
       </c>
@@ -50574,7 +50574,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
         <v>490</v>
       </c>
@@ -50627,7 +50627,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
         <v>490</v>
       </c>
@@ -50680,7 +50680,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
         <v>490</v>
       </c>
@@ -50733,7 +50733,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
         <v>490</v>
       </c>
@@ -50786,7 +50786,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
         <v>490</v>
       </c>
@@ -50839,7 +50839,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
         <v>490</v>
       </c>
@@ -50892,7 +50892,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
         <v>490</v>
       </c>
@@ -50945,7 +50945,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
         <v>490</v>
       </c>
@@ -51000,7 +51000,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
         <v>490</v>
       </c>
@@ -51055,7 +51055,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>490</v>
       </c>
@@ -51110,7 +51110,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
         <v>490</v>
       </c>
@@ -51165,7 +51165,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
         <v>490</v>
       </c>
@@ -51220,7 +51220,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>490</v>
       </c>
@@ -51276,7 +51276,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>490</v>
       </c>
@@ -51332,7 +51332,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>490</v>
       </c>
@@ -51387,7 +51387,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>490</v>
       </c>
@@ -51442,7 +51442,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
         <v>490</v>
       </c>
@@ -51495,7 +51495,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
         <v>490</v>
       </c>
@@ -51548,7 +51548,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
         <v>490</v>
       </c>
@@ -51601,7 +51601,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
         <v>490</v>
       </c>
@@ -51652,7 +51652,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
         <v>490</v>
       </c>
@@ -51704,7 +51704,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
         <v>490</v>
       </c>
@@ -51757,7 +51757,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
         <v>490</v>
       </c>
@@ -51808,7 +51808,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
         <v>490</v>
       </c>
@@ -51859,7 +51859,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
         <v>490</v>
       </c>
@@ -51912,7 +51912,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
         <v>490</v>
       </c>
@@ -51966,7 +51966,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="3" t="s">
         <v>490</v>
       </c>
@@ -52017,7 +52017,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="3" t="s">
         <v>490</v>
       </c>
@@ -52070,7 +52070,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="3" t="s">
         <v>490</v>
       </c>
@@ -52123,7 +52123,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="3" t="s">
         <v>490</v>
       </c>
@@ -52176,7 +52176,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="3" t="s">
         <v>490</v>
       </c>
@@ -52230,7 +52230,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="3" t="s">
         <v>490</v>
       </c>
@@ -52283,7 +52283,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="3" t="s">
         <v>490</v>
       </c>
@@ -52339,7 +52339,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
         <v>490</v>
       </c>
@@ -52394,7 +52394,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="3" t="s">
         <v>490</v>
       </c>
@@ -52450,7 +52450,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="3" t="s">
         <v>490</v>
       </c>
@@ -52503,7 +52503,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
         <v>490</v>
       </c>
@@ -52558,7 +52558,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
         <v>490</v>
       </c>
@@ -52613,7 +52613,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
         <v>490</v>
       </c>
@@ -52668,7 +52668,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
         <v>490</v>
       </c>
@@ -52723,7 +52723,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
         <v>490</v>
       </c>
@@ -52778,7 +52778,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
         <v>490</v>
       </c>
@@ -52833,7 +52833,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
         <v>490</v>
       </c>
@@ -52888,7 +52888,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
         <v>490</v>
       </c>
@@ -52943,7 +52943,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
         <v>490</v>
       </c>
@@ -52998,7 +52998,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
         <v>490</v>
       </c>
@@ -53053,7 +53053,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
         <v>490</v>
       </c>
@@ -53106,7 +53106,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="3" t="s">
         <v>490</v>
       </c>
@@ -53159,7 +53159,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="3" t="s">
         <v>490</v>
       </c>
@@ -53212,7 +53212,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
         <v>490</v>
       </c>
@@ -53270,7 +53270,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
         <v>490</v>
       </c>
@@ -53323,7 +53323,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="3" t="s">
         <v>490</v>
       </c>
@@ -53378,7 +53378,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
         <v>490</v>
       </c>
@@ -53433,7 +53433,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
         <v>490</v>
       </c>
@@ -53486,7 +53486,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="3" t="s">
         <v>490</v>
       </c>
@@ -53539,7 +53539,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="3" t="s">
         <v>490</v>
       </c>
@@ -53592,7 +53592,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="3" t="s">
         <v>490</v>
       </c>
@@ -53645,7 +53645,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="3" t="s">
         <v>490</v>
       </c>
@@ -53698,7 +53698,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="3" t="s">
         <v>490</v>
       </c>
@@ -53751,7 +53751,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="3" t="s">
         <v>490</v>
       </c>
@@ -53804,7 +53804,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="3" t="s">
         <v>490</v>
       </c>
@@ -53857,7 +53857,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="3" t="s">
         <v>490</v>
       </c>
@@ -53910,7 +53910,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="3" t="s">
         <v>490</v>
       </c>
@@ -53963,7 +53963,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="3" t="s">
         <v>490</v>
       </c>
@@ -54016,7 +54016,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="3" t="s">
         <v>490</v>
       </c>
@@ -54069,7 +54069,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="3" t="s">
         <v>490</v>
       </c>
@@ -54122,7 +54122,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="3" t="s">
         <v>490</v>
       </c>
@@ -54175,7 +54175,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="3" t="s">
         <v>490</v>
       </c>
@@ -54231,7 +54231,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="3" t="s">
         <v>490</v>
       </c>
@@ -54284,7 +54284,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="3" t="s">
         <v>490</v>
       </c>
@@ -54340,7 +54340,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
         <v>490</v>
       </c>
@@ -54393,7 +54393,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="3" t="s">
         <v>490</v>
       </c>
@@ -54449,7 +54449,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
         <v>490</v>
       </c>
@@ -54504,7 +54504,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="3" t="s">
         <v>490</v>
       </c>
@@ -54557,7 +54557,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
         <v>490</v>
       </c>
@@ -54610,7 +54610,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="3" t="s">
         <v>490</v>
       </c>
@@ -54663,7 +54663,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="3" t="s">
         <v>490</v>
       </c>
@@ -54718,7 +54718,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="3" t="s">
         <v>490</v>
       </c>
@@ -54773,7 +54773,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="3" t="s">
         <v>490</v>
       </c>
@@ -54828,7 +54828,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="3" t="s">
         <v>490</v>
       </c>
@@ -54883,7 +54883,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="3" t="s">
         <v>490</v>
       </c>
@@ -54938,7 +54938,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="3" t="s">
         <v>490</v>
       </c>
@@ -54993,7 +54993,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
         <v>490</v>
       </c>
@@ -55048,7 +55048,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="3" t="s">
         <v>490</v>
       </c>
@@ -55101,7 +55101,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="3" t="s">
         <v>490</v>
       </c>
@@ -55152,7 +55152,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="3" t="s">
         <v>490</v>
       </c>
@@ -55203,7 +55203,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="3" t="s">
         <v>490</v>
       </c>
@@ -55256,7 +55256,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="3" t="s">
         <v>490</v>
       </c>
@@ -55309,7 +55309,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="3" t="s">
         <v>490</v>
       </c>
@@ -55360,7 +55360,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="3" t="s">
         <v>490</v>
       </c>
@@ -55415,7 +55415,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="3" t="s">
         <v>490</v>
       </c>
@@ -55468,7 +55468,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="3" t="s">
         <v>490</v>
       </c>
@@ -55524,7 +55524,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="3" t="s">
         <v>490</v>
       </c>
@@ -55577,7 +55577,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="3" t="s">
         <v>490</v>
       </c>
@@ -55630,7 +55630,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="3" t="s">
         <v>490</v>
       </c>
@@ -55683,7 +55683,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="3" t="s">
         <v>490</v>
       </c>
@@ -55736,7 +55736,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="3" t="s">
         <v>490</v>
       </c>
@@ -55789,7 +55789,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="3" t="s">
         <v>490</v>
       </c>
@@ -55844,7 +55844,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="3" t="s">
         <v>490</v>
       </c>
@@ -55897,7 +55897,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="3" t="s">
         <v>490</v>
       </c>
@@ -55950,7 +55950,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="3" t="s">
         <v>490</v>
       </c>
@@ -56003,7 +56003,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="3" t="s">
         <v>490</v>
       </c>
@@ -56056,7 +56056,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="3" t="s">
         <v>490</v>
       </c>
@@ -56109,7 +56109,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="3" t="s">
         <v>490</v>
       </c>
@@ -56162,7 +56162,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="3" t="s">
         <v>490</v>
       </c>
@@ -56215,7 +56215,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="3" t="s">
         <v>490</v>
       </c>
@@ -56270,7 +56270,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="3" t="s">
         <v>490</v>
       </c>
@@ -56325,7 +56325,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="3" t="s">
         <v>490</v>
       </c>
@@ -56380,7 +56380,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="3" t="s">
         <v>490</v>
       </c>
@@ -56435,7 +56435,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="3" t="s">
         <v>490</v>
       </c>
@@ -56488,7 +56488,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="3" t="s">
         <v>490</v>
       </c>
@@ -56541,7 +56541,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="3" t="s">
         <v>490</v>
       </c>
@@ -56594,7 +56594,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="3" t="s">
         <v>490</v>
       </c>
@@ -56647,7 +56647,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="3" t="s">
         <v>490</v>
       </c>
@@ -56700,7 +56700,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" s="3" t="s">
         <v>490</v>
       </c>
@@ -56753,7 +56753,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" s="3" t="s">
         <v>490</v>
       </c>
@@ -56806,7 +56806,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="3" t="s">
         <v>490</v>
       </c>
@@ -56859,7 +56859,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="3" t="s">
         <v>490</v>
       </c>
@@ -56912,7 +56912,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="3" t="s">
         <v>490</v>
       </c>
@@ -56965,7 +56965,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="3" t="s">
         <v>490</v>
       </c>
@@ -57018,7 +57018,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="3" t="s">
         <v>490</v>
       </c>
@@ -57071,7 +57071,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="3" t="s">
         <v>490</v>
       </c>
@@ -57124,7 +57124,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="3" t="s">
         <v>490</v>
       </c>
@@ -57177,7 +57177,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="3" t="s">
         <v>490</v>
       </c>
@@ -57230,7 +57230,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" s="3" t="s">
         <v>490</v>
       </c>
@@ -57283,7 +57283,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="3" t="s">
         <v>490</v>
       </c>
@@ -57336,7 +57336,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="3" t="s">
         <v>490</v>
       </c>
@@ -57389,7 +57389,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="3" t="s">
         <v>490</v>
       </c>
@@ -57442,7 +57442,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="3" t="s">
         <v>490</v>
       </c>
@@ -57495,7 +57495,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="3" t="s">
         <v>490</v>
       </c>
@@ -57548,7 +57548,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="3" t="s">
         <v>490</v>
       </c>
@@ -57601,7 +57601,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="3" t="s">
         <v>490</v>
       </c>
@@ -57654,7 +57654,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="3" t="s">
         <v>490</v>
       </c>
@@ -57707,7 +57707,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="3" t="s">
         <v>490</v>
       </c>
@@ -57760,7 +57760,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="3" t="s">
         <v>490</v>
       </c>
@@ -57813,7 +57813,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="3" t="s">
         <v>490</v>
       </c>
@@ -57866,7 +57866,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" s="3" t="s">
         <v>490</v>
       </c>
@@ -57919,7 +57919,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="3" t="s">
         <v>490</v>
       </c>
@@ -57972,7 +57972,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="3" t="s">
         <v>490</v>
       </c>
@@ -58025,7 +58025,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" s="3" t="s">
         <v>490</v>
       </c>
@@ -58131,7 +58131,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="3" t="s">
         <v>490</v>
       </c>
@@ -58184,7 +58184,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="3" t="s">
         <v>490</v>
       </c>
@@ -58237,7 +58237,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="3" t="s">
         <v>490</v>
       </c>
@@ -58292,7 +58292,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="3" t="s">
         <v>490</v>
       </c>
@@ -58348,7 +58348,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="3" t="s">
         <v>490</v>
       </c>
@@ -58404,7 +58404,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="3" t="s">
         <v>490</v>
       </c>
@@ -58460,7 +58460,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="3" t="s">
         <v>490</v>
       </c>
@@ -58513,7 +58513,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="3" t="s">
         <v>490</v>
       </c>
@@ -58566,7 +58566,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="3" t="s">
         <v>490</v>
       </c>
@@ -58619,7 +58619,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" s="3" t="s">
         <v>490</v>
       </c>
@@ -58675,7 +58675,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" s="3" t="s">
         <v>490</v>
       </c>
@@ -58728,7 +58728,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" s="3" t="s">
         <v>490</v>
       </c>
@@ -58781,7 +58781,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="3" t="s">
         <v>490</v>
       </c>
@@ -58837,7 +58837,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="3" t="s">
         <v>490</v>
       </c>
@@ -58890,7 +58890,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="3" t="s">
         <v>490</v>
       </c>
@@ -58943,7 +58943,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="3" t="s">
         <v>490</v>
       </c>
@@ -58996,7 +58996,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="3" t="s">
         <v>490</v>
       </c>
@@ -59049,7 +59049,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="3" t="s">
         <v>490</v>
       </c>
@@ -59102,7 +59102,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="3" t="s">
         <v>490</v>
       </c>
@@ -59155,7 +59155,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="3" t="s">
         <v>490</v>
       </c>
@@ -59208,7 +59208,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="3" t="s">
         <v>490</v>
       </c>
@@ -59261,7 +59261,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="3" t="s">
         <v>490</v>
       </c>
@@ -59314,7 +59314,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="3" t="s">
         <v>490</v>
       </c>
@@ -59367,7 +59367,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="3" t="s">
         <v>490</v>
       </c>
@@ -59420,7 +59420,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="3" t="s">
         <v>490</v>
       </c>
@@ -59473,7 +59473,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" s="3" t="s">
         <v>490</v>
       </c>
@@ -59526,7 +59526,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="3" t="s">
         <v>490</v>
       </c>
@@ -59579,7 +59579,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="3" t="s">
         <v>490</v>
       </c>
@@ -59631,7 +59631,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="3" t="s">
         <v>490</v>
       </c>
@@ -59683,7 +59683,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="3" t="s">
         <v>490</v>
       </c>
@@ -59735,7 +59735,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="3" t="s">
         <v>490</v>
       </c>
@@ -59787,7 +59787,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="3" t="s">
         <v>490</v>
       </c>
@@ -59839,7 +59839,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="3" t="s">
         <v>490</v>
       </c>
@@ -59889,7 +59889,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="3" t="s">
         <v>490</v>
       </c>
@@ -59939,7 +59939,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="3" t="s">
         <v>490</v>
       </c>
@@ -59991,7 +59991,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="3" t="s">
         <v>490</v>
       </c>
@@ -60041,7 +60041,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="3" t="s">
         <v>490</v>
       </c>
@@ -60093,7 +60093,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" s="3" t="s">
         <v>490</v>
       </c>
@@ -60145,7 +60145,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="3" t="s">
         <v>490</v>
       </c>
@@ -60197,7 +60197,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="3" t="s">
         <v>490</v>
       </c>
@@ -60249,7 +60249,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" s="3" t="s">
         <v>490</v>
       </c>
@@ -60301,7 +60301,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="3" t="s">
         <v>490</v>
       </c>
@@ -60353,7 +60353,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="3" t="s">
         <v>490</v>
       </c>
@@ -60403,7 +60403,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="3" t="s">
         <v>490</v>
       </c>
@@ -60453,7 +60453,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="3" t="s">
         <v>490</v>
       </c>
@@ -60503,7 +60503,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="3" t="s">
         <v>490</v>
       </c>
@@ -60553,7 +60553,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="3" t="s">
         <v>490</v>
       </c>
@@ -60605,7 +60605,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="26" t="s">
         <v>490</v>
       </c>
@@ -60656,7 +60656,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="26" t="s">
         <v>490</v>
       </c>
@@ -60707,7 +60707,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="26" t="s">
         <v>490</v>
       </c>
@@ -60758,7 +60758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="26" t="s">
         <v>490</v>
       </c>
@@ -60809,7 +60809,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="26" t="s">
         <v>490</v>
       </c>
@@ -60860,7 +60860,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="26" t="s">
         <v>490</v>
       </c>
@@ -60911,7 +60911,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="26" t="s">
         <v>490</v>
       </c>
@@ -60962,7 +60962,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="26" t="s">
         <v>490</v>
       </c>
@@ -61013,7 +61013,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="26" t="s">
         <v>490</v>
       </c>
@@ -61064,7 +61064,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="26" t="s">
         <v>490</v>
       </c>
@@ -61115,7 +61115,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="3" t="s">
         <v>490</v>
       </c>
@@ -61170,7 +61170,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="3" t="s">
         <v>490</v>
       </c>
@@ -61224,7 +61224,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="3" t="s">
         <v>490</v>
       </c>
@@ -61274,7 +61274,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="3" t="s">
         <v>490</v>
       </c>
@@ -61324,7 +61324,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="3" t="s">
         <v>490</v>
       </c>
@@ -61374,7 +61374,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" s="3" t="s">
         <v>490</v>
       </c>
@@ -61421,7 +61421,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" s="3" t="s">
         <v>490</v>
       </c>
@@ -61468,7 +61468,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="24" t="s">
         <v>490</v>
       </c>
@@ -61518,7 +61518,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="24" t="s">
         <v>490</v>
       </c>
@@ -61568,7 +61568,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" s="24" t="s">
         <v>490</v>
       </c>
@@ -61620,7 +61620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" s="24" t="s">
         <v>490</v>
       </c>
@@ -61672,7 +61672,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" s="24" t="s">
         <v>490</v>
       </c>
@@ -61723,7 +61723,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S495" xr:uid="{0A8336D4-B4F8-43E5-A8F1-A931F30747CD}"/>
+  <autoFilter ref="A1:S495" xr:uid="{0A8336D4-B4F8-43E5-A8F1-A931F30747CD}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="int"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -63431,21 +63437,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BCF26070EBB9584A81C1F69BD209A156" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="92eb8afa4084cc64bec0c5b57dec0e57">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c60b5439-a346-4f50-a4a5-eb868e3250f4" xmlns:ns4="efc15a28-dc10-4286-9431-5ed102b98316" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5bf01575b194eeee796f7a095281951" ns3:_="" ns4:_="">
     <xsd:import namespace="c60b5439-a346-4f50-a4a5-eb868e3250f4"/>
@@ -63668,32 +63659,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E0BAD04-9C30-44C1-9634-43318E974BAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c60b5439-a346-4f50-a4a5-eb868e3250f4"/>
-    <ds:schemaRef ds:uri="efc15a28-dc10-4286-9431-5ed102b98316"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{537A321A-B9CF-4FE7-9D50-929CAC94B90F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69871EBC-1B73-4E3C-87A2-B6DB6B3C4C7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -63710,4 +63691,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{537A321A-B9CF-4FE7-9D50-929CAC94B90F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E0BAD04-9C30-44C1-9634-43318E974BAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c60b5439-a346-4f50-a4a5-eb868e3250f4"/>
+    <ds:schemaRef ds:uri="efc15a28-dc10-4286-9431-5ed102b98316"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>